--- a/Doc/Répartition Heures.xlsx
+++ b/Doc/Répartition Heures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\HEIG\Semestre 4\PRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romain\Documents\HEIG\Semestre 4\PRO\PROHEIG18\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,19 +24,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>- Recherche de sujet
-	-Rom S</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1289,6 +1276,60 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Forme automatique 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CA1A0F-6B7A-4520-ADF6-6D7DE8947F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -1606,9 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2412,7 +2451,8 @@
     <mergeCell ref="B20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>